--- a/data/trans_bre/IP1003-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP1003-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 7,85</t>
+          <t>-3,53; 7,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 3,4</t>
+          <t>-9,51; 2,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,76; -2,21</t>
+          <t>-14,16; -1,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,82; 0,69</t>
+          <t>-17,1; 0,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,68; 348,8</t>
+          <t>-53,6; 300,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-79,06; 98,88</t>
+          <t>-83,71; 86,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 9,56</t>
+          <t>-100,0; 35,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 40,84</t>
+          <t>-100,0; 57,8</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,66</t>
+          <t>-4,48; 0,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,23</t>
+          <t>-3,8; 1,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 1,8</t>
+          <t>-3,01; 1,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 1,46</t>
+          <t>-4,44; 1,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,94; 11,59</t>
+          <t>-51,52; 14,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,29; 25,04</t>
+          <t>-51,11; 22,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,26; 43,67</t>
+          <t>-44,22; 47,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-50,87; 23,66</t>
+          <t>-48,82; 19,47</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 4,37</t>
+          <t>-4,45; 3,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 2,89</t>
+          <t>-4,88; 2,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 5,28</t>
+          <t>-1,75; 5,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 1,57</t>
+          <t>-8,44; 1,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,26; 102,39</t>
+          <t>-52,92; 83,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-70,28; 107,9</t>
+          <t>-63,15; 88,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,25; 326,55</t>
+          <t>-46,73; 314,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-73,65; 33,35</t>
+          <t>-72,62; 30,6</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,18</t>
+          <t>-3,32; 1,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,35</t>
+          <t>-3,34; 0,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,27</t>
+          <t>-2,44; 1,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,22; -0,02</t>
+          <t>-4,97; 0,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,07; 19,05</t>
+          <t>-40,34; 18,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-48,94; 6,74</t>
+          <t>-46,67; 12,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-40,21; 31,09</t>
+          <t>-39,39; 33,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-53,03; 0,55</t>
+          <t>-51,41; 1,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1003-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP1003-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-86,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,07%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 7,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,57; 2,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,17; -1,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,15; 0,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,41; 347,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,94; 100,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 20,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 34,47</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,26</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-7,34</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,69%</t>
+          <t>-23,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-36,76%</t>
+          <t>-21,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-86,66%</t>
+          <t>-10,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-64,02%</t>
+          <t>-25,69%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 7,44</t>
+          <t>-4,35; 0,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 2,87</t>
+          <t>-3,63; 1,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -1,88</t>
+          <t>-3,16; 1,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,1; 0,63</t>
+          <t>-5,14; 1,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-53,6; 300,63</t>
+          <t>-49,98; 15,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-83,71; 86,93</t>
+          <t>-49,64; 30,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 35,23</t>
+          <t>-46,94; 38,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 57,8</t>
+          <t>-52,32; 21,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-23,51%</t>
+          <t>-5,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,59%</t>
+          <t>-18,38%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-10,76%</t>
+          <t>52,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-21,65%</t>
+          <t>-37,91%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,79</t>
+          <t>-4,92; 3,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 1,1</t>
+          <t>-4,85; 2,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 1,99</t>
+          <t>-1,81; 5,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 1,14</t>
+          <t>-8,84; 0,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,52; 14,91</t>
+          <t>-53,2; 94,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-51,11; 22,17</t>
+          <t>-65,95; 97,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-44,22; 47,56</t>
+          <t>-44,48; 356,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-48,82; 19,47</t>
+          <t>-75,94; 23,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,3</t>
+          <t>-2,71</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-5,86%</t>
+          <t>-13,78%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-18,38%</t>
+          <t>-23,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>52,6%</t>
+          <t>-11,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-39,09%</t>
+          <t>-32,94%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 3,72</t>
+          <t>-3,11; 1,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 2,66</t>
+          <t>-3,35; 0,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 5,1</t>
+          <t>-2,58; 1,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 1,37</t>
+          <t>-5,3; -0,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,92; 83,87</t>
+          <t>-38,87; 18,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-63,15; 88,4</t>
+          <t>-48,7; 11,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 314,23</t>
+          <t>-42,83; 31,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-72,62; 30,6</t>
+          <t>-53,61; -5,57</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,52</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-13,69%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-23,02%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-11,97%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-30,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,32; 1,08</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 0,63</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,44; 1,35</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 0,02</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-40,34; 18,99</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-46,67; 12,99</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-39,39; 33,53</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-51,41; 1,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
